--- a/Templates/IterationPlan.xlsx
+++ b/Templates/IterationPlan.xlsx
@@ -19,14 +19,14 @@
   </sheets>
   <calcPr calcId="122211"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>Product</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Release</t>
@@ -384,7 +381,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="38887.738159722219" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="277">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:D6" sheet="Source Data"/>
+    <worksheetSource ref="B1:D5" sheet="Source Data"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Product" numFmtId="0">
@@ -2741,7 +2738,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
   <location ref="A6:E33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -2904,7 +2901,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
   <location ref="A6:E46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -3188,7 +3185,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product">
   <location ref="A6:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" defaultSubtotal="0">
@@ -3683,10 +3680,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3713,12 +3710,12 @@
         <v>48</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>49</v>
@@ -3731,7 +3728,7 @@
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>51</v>
@@ -3744,7 +3741,7 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>52</v>
@@ -3756,40 +3753,40 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="15" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>58</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3797,7 +3794,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3810,7 +3807,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3823,7 +3820,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3833,7 +3830,7 @@
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>63</v>
@@ -3854,19 +3851,6 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8">
         <v>2</v>
       </c>
     </row>
